--- a/data/Vader-topic_sentiment-correlation.xlsx
+++ b/data/Vader-topic_sentiment-correlation.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -491,25 +491,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1405313718014012</v>
+        <v>0.395261174363013</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1864164201984098</v>
+        <v>0.8015749816567688</v>
       </c>
       <c r="E2" t="n">
-        <v>0.302153200331178</v>
+        <v>0.14175160784527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2579838972865654</v>
+        <v>-0.0901859286715342</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2156856192387497</v>
+        <v>-0.6024869871734317</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1539698925228917</v>
+        <v>-0.01513861001908638</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2231663281146032</v>
+        <v>-0.05012049270214635</v>
       </c>
     </row>
     <row r="3">
@@ -519,28 +519,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1405313718014012</v>
+        <v>0.395261174363013</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2657496196135949</v>
+        <v>0.7540048887653659</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05437983892032685</v>
+        <v>0.4564651934768293</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1188720406845655</v>
+        <v>-0.7046426699603657</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2186634248125066</v>
+        <v>-0.6325926200054387</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.02965529956353674</v>
+        <v>-0.06079849589844976</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1087666366324123</v>
+        <v>-0.08960348104240116</v>
       </c>
     </row>
     <row r="4">
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1864164201984098</v>
+        <v>0.8015749816567688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2657496196135949</v>
+        <v>0.7540048887653659</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1004597638403858</v>
+        <v>0.5744964102721467</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1741829977102236</v>
+        <v>-0.5644634236438436</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06151675986414015</v>
+        <v>-0.8205638741299099</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1129957056068504</v>
+        <v>-0.2622440627294857</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2842856542335594</v>
+        <v>-0.2486786447592945</v>
       </c>
     </row>
     <row r="5">
@@ -581,28 +581,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.302153200331178</v>
+        <v>0.14175160784527</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05437983892032685</v>
+        <v>0.4564651934768293</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1004597638403858</v>
+        <v>0.5744964102721467</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04665379877560472</v>
+        <v>-0.5737679245308471</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4379401927716271</v>
+        <v>-0.7050138929882634</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2094476686131932</v>
+        <v>-0.2758774278768386</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.245331236122732</v>
+        <v>-0.7956788716034988</v>
       </c>
     </row>
     <row r="6">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2579838972865654</v>
+        <v>-0.0901859286715342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1188720406845655</v>
+        <v>-0.7046426699603657</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1741829977102236</v>
+        <v>-0.5644634236438436</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04665379877560472</v>
+        <v>-0.5737679245308471</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2087434849457821</v>
+        <v>0.3910144605863733</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1022244608994834</v>
+        <v>0.2039466210293897</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1669677419403814</v>
+        <v>-0.01788106460852629</v>
       </c>
     </row>
     <row r="7">
@@ -643,28 +643,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2156856192387497</v>
+        <v>-0.6024869871734317</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2186634248125066</v>
+        <v>-0.6325926200054387</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.06151675986414015</v>
+        <v>-0.8205638741299099</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4379401927716271</v>
+        <v>-0.7050138929882634</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2087434849457821</v>
+        <v>0.3910144605863733</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1270683739043553</v>
+        <v>0.1972549909204953</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3573631974712527</v>
+        <v>0.5147588989200419</v>
       </c>
     </row>
     <row r="8">
@@ -674,28 +674,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1539698925228917</v>
+        <v>-0.01513861001908638</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02965529956353674</v>
+        <v>-0.06079849589844976</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1129957056068504</v>
+        <v>-0.2622440627294857</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2094476686131932</v>
+        <v>-0.2758774278768386</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1022244608994834</v>
+        <v>0.2039466210293897</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1270683739043553</v>
+        <v>0.1972549909204953</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0829128581376634</v>
+        <v>0.08931754226523883</v>
       </c>
     </row>
     <row r="9">
@@ -705,31 +705,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2231663281146032</v>
+        <v>-0.05012049270214635</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1087666366324123</v>
+        <v>-0.08960348104240116</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2842856542335594</v>
+        <v>-0.2486786447592945</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.245331236122732</v>
+        <v>-0.7956788716034988</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1669677419403814</v>
+        <v>-0.01788106460852629</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3573631974712527</v>
+        <v>0.5147588989200419</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0829128581376634</v>
+        <v>0.08931754226523883</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>